--- a/MS2/workinprogress/brief_use_case.xlsx
+++ b/MS2/workinprogress/brief_use_case.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Brief_Use_Case" sheetId="1" r:id="rId1"/>
+    <sheet name="Essential_Use_Case" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>actor</t>
   </si>
@@ -105,13 +106,166 @@
   </si>
   <si>
     <t>Bei Problemen kann ohne Besuch des Fachhandels per Videochat, virtuellem Aquarium und den Wasserwerten auf die Probleme im Aquarium eingegangen werden und eine Lösung vom Fachhandel vorgeschlagen werden.</t>
+  </si>
+  <si>
+    <t>Essential Use Cases</t>
+  </si>
+  <si>
+    <t>Nährwerte aktualisieren</t>
+  </si>
+  <si>
+    <t>Absicht des Benutzers</t>
+  </si>
+  <si>
+    <t>Verantwortlichkeit des Systems</t>
+  </si>
+  <si>
+    <t>nimmt eine Wasserprobe</t>
+  </si>
+  <si>
+    <t>präsentiert Nährwerte</t>
+  </si>
+  <si>
+    <t>gibt neue Nährwerte ein</t>
+  </si>
+  <si>
+    <t>berechnet tägliche Nährstoffänderung</t>
+  </si>
+  <si>
+    <t>bestätigt das Hinzufügen</t>
+  </si>
+  <si>
+    <t>Düngen des Wassers</t>
+  </si>
+  <si>
+    <t>aktualisiert die Nährwerte</t>
+  </si>
+  <si>
+    <t>Überprüft, ob Zielwerte erreicht wurden</t>
+  </si>
+  <si>
+    <t>Anlegen des virtuellen Aquariums</t>
+  </si>
+  <si>
+    <t>Kauf eines neuen Objekt fürs Aquarium</t>
+  </si>
+  <si>
+    <t>führt suche nach Objekt aus</t>
+  </si>
+  <si>
+    <t>präsentiert Suchkatalog</t>
+  </si>
+  <si>
+    <t>präsentiert passende Objekte</t>
+  </si>
+  <si>
+    <t>fügt Buch dem Aquarium hinzu</t>
+  </si>
+  <si>
+    <t>[optional] informiert sich über Objekt</t>
+  </si>
+  <si>
+    <t>präsentiert Details zum Objekt</t>
+  </si>
+  <si>
+    <t>bestätigt den Abschluss des Vorgangs</t>
+  </si>
+  <si>
+    <t>Bearbeiten des virtuellen Aquariums</t>
+  </si>
+  <si>
+    <t>fügt ein Aquarium hinzu</t>
+  </si>
+  <si>
+    <t>fügt Objekt dem Aquarium hinzu</t>
+  </si>
+  <si>
+    <t>präsentiert Aquarien</t>
+  </si>
+  <si>
+    <t>bestätigt den Abschluss</t>
+  </si>
+  <si>
+    <t>[foreach] Aquarienobjekt hinzufügen</t>
+  </si>
+  <si>
+    <t>Erinnerung an notw. WW</t>
+  </si>
+  <si>
+    <t>Erreichen optimaler Wasserwerte</t>
+  </si>
+  <si>
+    <t>Bestimmen des WW Verhältnisses für Zielwerte</t>
+  </si>
+  <si>
+    <t>Wasserwechsel durchführen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berechnen der neuen WW </t>
+  </si>
+  <si>
+    <t>Präsentieren der neuen WW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem feststellen </t>
+  </si>
+  <si>
+    <t>Informationen dem Experten bereitstellen</t>
+  </si>
+  <si>
+    <t>präsentieren der Werte des Kunden</t>
+  </si>
+  <si>
+    <t>Problemanalyse durchführen</t>
+  </si>
+  <si>
+    <t>[optional] bei mangelnder Problemfindung Gespräch mit Kunden</t>
+  </si>
+  <si>
+    <t>[optional] Verbindung zwischen Fachhandel und Kunde herstellen</t>
+  </si>
+  <si>
+    <t>Lösung bereitstellen</t>
+  </si>
+  <si>
+    <t>präsentieren der Lösung</t>
+  </si>
+  <si>
+    <t>Objekte dem Kunden empfehlen</t>
+  </si>
+  <si>
+    <t>Beabsichtigter Neukauf eines Kunden</t>
+  </si>
+  <si>
+    <t>Beratung durch Fachhandel</t>
+  </si>
+  <si>
+    <t>Präsentieren des Aquariums und seinen Eigenschaften eines Kundens</t>
+  </si>
+  <si>
+    <t>Beratung basiernd auf Infos von Kunden</t>
+  </si>
+  <si>
+    <t>Präsentieren der Nährwerte</t>
+  </si>
+  <si>
+    <t>Algenbildung/ schlechte Nährwerte</t>
+  </si>
+  <si>
+    <t>Informieren des Experten</t>
+  </si>
+  <si>
+    <t>Düngeempfehlung für den Kunden</t>
+  </si>
+  <si>
+    <t>Präsentation der Düngeempfehlung für den Kunden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +281,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -144,16 +321,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -433,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,110 +814,923 @@
     <col min="2" max="3" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="30"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="32"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="30"/>
+    </row>
+    <row r="54" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="30"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="30"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="30"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="30"/>
+    </row>
+    <row r="66" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="31"/>
+    </row>
+    <row r="67" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="19"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="28"/>
+      <c r="F70" s="29"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="29"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="30"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="30"/>
+    </row>
+    <row r="74" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="31"/>
+    </row>
+    <row r="75" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="17"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="19"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="28"/>
+      <c r="F78" s="29"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" s="28"/>
+      <c r="F79" s="29"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="30"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="30"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="30"/>
+    </row>
+    <row r="83" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MS2/workinprogress/brief_use_case.xlsx
+++ b/MS2/workinprogress/brief_use_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-23380" yWindow="-520" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Brief_Use_Case" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
   <si>
     <t>actor</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Aquarienbesitzer</t>
   </si>
   <si>
-    <t>Der Besitzer besitzt ein Tool zur Wasseranalyse und speichert anschließend die Werte permanent.</t>
-  </si>
-  <si>
-    <t>Der Besitzer eines Aquariums bringt eine Wasserprobe zum Fachhändler, welche diese analysiert und die Ergebnisse dem Besitzer zurückgibt.</t>
-  </si>
-  <si>
     <t>Düngung des Wassers</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>Wasserwechsel</t>
   </si>
   <si>
-    <t>Anhand der Werte des Leitungswasser wird das Verhältnis zwischen Osmose- und Leitungswasser für die richtige Zielmenge berechnet. Der Besitzer muss anschließend diesen WW durchführen</t>
-  </si>
-  <si>
     <t>Fachhandel</t>
   </si>
   <si>
@@ -78,36 +69,12 @@
     <t>Fachhandel schaut sich die Wasserwerte der Kunden an und reagiert daraufhin mit Empfehlung des optimalen Düngemittels. Die Dosierung übernimmt der Kunde selbst.</t>
   </si>
   <si>
-    <t>Empfehlen von Fischen und Pflanzen</t>
-  </si>
-  <si>
-    <t>Empfehlungen von Fischen und Pflanzen anhand der analysierten Wasserwerte. Der Kunde erhält so eine individuelle Analyse und der Fachhändler kann entsprechend der Wasserwerte auf Probleme reagieren</t>
-  </si>
-  <si>
     <t>Problemanalyse beim Kunden</t>
   </si>
   <si>
-    <t>Anhand der Wasserwerte und einem Videochat kann das Aquarium auf alle möglichen Einflüsse, die zu Problemen führen, überprüft werden.</t>
-  </si>
-  <si>
-    <t>Kauf von Fischen etc.</t>
-  </si>
-  <si>
-    <t>Der Kunde kauft beim Fachhandel neue Fische oder Pflanzen, welche er seinem Aquarium hinzufügt. Beim Kauf wird der Fisch schon dem virtuellen Aquarium hinzugefügt.</t>
-  </si>
-  <si>
-    <t>Anlegen eines virtuellen Aquariums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Besitzer fügt die einzelnen Komponenten, wie Fische, Pflanzen, Licht und Bodenart ins virtuelle Aquarium hinzu. </t>
-  </si>
-  <si>
     <t>Probleme behandeln</t>
   </si>
   <si>
-    <t>Bei Problemen kann ohne Besuch des Fachhandels per Videochat, virtuellem Aquarium und den Wasserwerten auf die Probleme im Aquarium eingegangen werden und eine Lösung vom Fachhandel vorgeschlagen werden.</t>
-  </si>
-  <si>
     <t>Essential Use Cases</t>
   </si>
   <si>
@@ -259,6 +226,108 @@
   </si>
   <si>
     <t>Präsentation der Düngeempfehlung für den Kunden</t>
+  </si>
+  <si>
+    <t>Fachhändler das Aquarium präsentieren</t>
+  </si>
+  <si>
+    <t>Der Besitzer besitzt ein Tool zur Wasseranalyse und dokumentiert anschließend die Werte permanent.</t>
+  </si>
+  <si>
+    <t>Der Besitzer eines Aquariums bringt eine Wasserprobe zum Fachhändler, welche diese analysiert und die Ergebnisse dem Besitzer zur permanenten Speicherung zurückgibt.</t>
+  </si>
+  <si>
+    <t>Bei Problemen die nicht auf die Wasserwerte zurückzuführen sind, muss der Aquarianer einen Mitarbeiter aus dem Fachhandel zu sich nach Hause bestellen. So kann dieser vor Ort die Umstände prüfen.</t>
+  </si>
+  <si>
+    <t>Kauf von Objekten fürs Aquarium</t>
+  </si>
+  <si>
+    <t>Der Kunde kauft im Fachhandel neue Objekte fürs Aquarium, wie zum Beispiel Fische oder Wasserpflanzen. Dabei muss dieser darauf achten, dass die gekauften Objekte zu den übrigen Umständen passen.</t>
+  </si>
+  <si>
+    <t>Empfehlungen von Fischen und Pflanzen anhand der analysierten Wasserwerte. Der Kunde erhält so eine individuelle Analyse und der Fachhändler kann entsprechend der Wasserwerte auf Probleme reagieren.</t>
+  </si>
+  <si>
+    <t>Anhand der Wasserwerte oder auch Besuch bei einem Kunden kann das Aquarium auf alle möglichen Einflüsse, die zu Problemen führen, überprüft werden.</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Zielgerichteten Wasserwechsel durchführen</t>
+  </si>
+  <si>
+    <t>Optimale Beratung des Kunden</t>
+  </si>
+  <si>
+    <t>Beratung des Kunden aufgrund von Problemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probleme im Aquarium/ optimale Bedingungen sind dem Aquarianer wichtig </t>
+  </si>
+  <si>
+    <t>Es fehlt ein bestimmter Nährstoff im Wasser</t>
+  </si>
+  <si>
+    <t>Der Besitzer möchte die einzelnen Komponenten, wie Fische, Pflanzen, Lampen und Boden dem Fachhandel präsentieren, damit er eine bessere Beratung vornehmen kann.</t>
+  </si>
+  <si>
+    <t>Anhand der Werte des Leitungswasser wird das Verhältnis zwischen Osmose- und Leitungswasser für die richtige Zielmenge berechnet. Der Besitzer muss anschließend diesen WW durchführen.</t>
+  </si>
+  <si>
+    <t>Kauf neuer Objekte/ Beratung durch Fachhandel/ Probleme im Aquarium</t>
+  </si>
+  <si>
+    <t>Wöchentliche Aquariumpflege / Falsche Wasserwerte</t>
+  </si>
+  <si>
+    <t>Problemfindung auf Entfernung nicht möglich</t>
+  </si>
+  <si>
+    <t>Dem Aquarianer fehlt etwas im Aquarium</t>
+  </si>
+  <si>
+    <t>Dokumentation ist umständlich. Eintragen ist aufwendig</t>
+  </si>
+  <si>
+    <t>Eintragen der Wasserwerte aufwendig. Papier ist nicht sehr wasserbeständig. Spritzwassergefahr!!</t>
+  </si>
+  <si>
+    <t>Berechnung der Dosierung und das Kennen der Idealwerte sehr umständlich. Fehlendes Wissen</t>
+  </si>
+  <si>
+    <t>Fotos und Beschreibungen oft ungenau, unvollständig oder auch zu umständlich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berechnung ist aufwendig. </t>
+  </si>
+  <si>
+    <t>Die Fahrt zu einem Kunden nach Hause ist sehr kostenintensiv und zeitaufwendig. Termine sind oft nur in weiter Entferung zu erhalten.</t>
+  </si>
+  <si>
+    <t>Der Kauf von Objekten passt oft nicht zu dem individuellen Aquarium.</t>
+  </si>
+  <si>
+    <t>Kunde möchte eine Wasseranalyse</t>
+  </si>
+  <si>
+    <t>Zeitliche Dauer, der Kunde muss oft zweimal zum Fachhandel</t>
+  </si>
+  <si>
+    <t>Schlechte Wasserwerte im Aquarium des Kunden</t>
+  </si>
+  <si>
+    <t>Dokumentation der Wasserwerte und Empfehlungen auf Papier geht oft verloren. Verlangt Anwesenheit des Kundens im Geschäft</t>
+  </si>
+  <si>
+    <t>Kunde möchte beraten werden</t>
+  </si>
+  <si>
+    <t>Individuelle Aquarienübersicht der Kunden schwierig zu überblicken, da die Kunden oft wechseln und die Wasserwerte nur von einmaliger Messung vorliegen</t>
   </si>
 </sst>
 </file>
@@ -483,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -525,6 +594,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -802,19 +878,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="3" width="43.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -824,8 +902,14 @@
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -833,99 +917,165 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>19</v>
+        <v>73</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -949,7 +1099,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -967,7 +1117,7 @@
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -985,19 +1135,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1010,14 +1160,14 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1030,7 +1180,7 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19"/>
@@ -1040,7 +1190,7 @@
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="22"/>
@@ -1055,7 +1205,7 @@
     </row>
     <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -1073,19 +1223,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1098,7 +1248,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="30"/>
@@ -1108,7 +1258,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="31"/>
@@ -1116,7 +1266,7 @@
     <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -1134,19 +1284,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1159,14 +1309,14 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1179,14 +1329,14 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1199,14 +1349,14 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1219,7 +1369,7 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="31"/>
@@ -1227,7 +1377,7 @@
     <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -1245,12 +1395,12 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="29"/>
@@ -1260,14 +1410,14 @@
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="18" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1280,14 +1430,14 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1300,7 +1450,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="30"/>
@@ -1310,7 +1460,7 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="31"/>
@@ -1325,7 +1475,7 @@
     </row>
     <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -1343,12 +1493,12 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="29"/>
@@ -1358,14 +1508,14 @@
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1378,14 +1528,14 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1397,14 +1547,14 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1417,14 +1567,14 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="32" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1437,14 +1587,14 @@
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1457,7 +1607,7 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="31"/>
@@ -1465,7 +1615,7 @@
     <row r="55" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -1483,19 +1633,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
       <c r="D58" s="28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
@@ -1508,7 +1658,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="30"/>
@@ -1518,14 +1668,14 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1535,7 +1685,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1548,14 +1698,14 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1568,7 +1718,7 @@
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="31"/>
@@ -1576,7 +1726,7 @@
     <row r="67" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -1594,19 +1744,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
@@ -1616,7 +1766,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1629,14 +1779,14 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -1654,7 +1804,7 @@
     </row>
     <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -1672,12 +1822,12 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="29"/>
@@ -1687,14 +1837,14 @@
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1707,14 +1857,14 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1727,7 +1877,7 @@
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="31"/>
